--- a/content/plataformes/dadesref/entitats/Jutjats_Pau.xlsx
+++ b/content/plataformes/dadesref/entitats/Jutjats_Pau.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_AF32026047CF38C3DC72F284E423D8655DFF8FAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26F59C64-85B1-42D0-8ECA-96F714CB0255}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpina\Generalitat de Catalunya\Governança Arquitectura Cloud i SI - 60_ARQ Dades - 60_ARQ Dades\20 Cataleg\60 Modelatge\118.Jutjats de pau\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="2746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4503" uniqueCount="2750">
   <si>
     <t>Nom entitat:</t>
   </si>
@@ -8269,12 +8273,24 @@
   </si>
   <si>
     <t>439076</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Altres/Diversos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -8284,7 +8300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8309,8 +8325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -8346,11 +8368,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8361,6 +8444,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8516,13 +8623,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -8542,6 +8642,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -8583,14 +8690,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{115C5C44-0E9C-4605-A861-6634CB6AEAD6}" name="DR_JdP3" displayName="DR_JdP3" ref="A3:E901" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A3:E901" xr:uid="{115C5C44-0E9C-4605-A861-6634CB6AEAD6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DR_JdP3" displayName="DR_JdP3" ref="A3:E903" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="A3:E903"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6A1E7807-296F-4159-8C05-717F1F609936}" name="Codi_jutjat_de_pau" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{98474945-6E05-4BF1-8E82-CDB50E60BC51}" name="Jutjat_de_pau" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DEF090DC-8FD1-4487-BA1A-DB989DCF90F0}" name="Codi_municipi" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{96E54C52-C1DF-4858-9B96-1BD07227E735}" name="Codi_partit_judicial" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{1E640FC6-7BCF-4D62-B5CA-8AE22BEA3937}" name="Vigencia" dataDxfId="0"/>
+    <tableColumn id="1" name="Codi_jutjat_de_pau" dataDxfId="4"/>
+    <tableColumn id="2" name="Jutjat_de_pau" dataDxfId="3"/>
+    <tableColumn id="3" name="Codi_municipi" dataDxfId="2"/>
+    <tableColumn id="4" name="Codi_partit_judicial" dataDxfId="1"/>
+    <tableColumn id="5" name="Vigencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -8912,20 +9019,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E901"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E903"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
+      <selection activeCell="E903" sqref="E903"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24226,6 +24333,32 @@
         <v>2343</v>
       </c>
       <c r="E901" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5">
+      <c r="A902" s="10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B902" s="11" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C902" s="12"/>
+      <c r="D902" s="12"/>
+      <c r="E902" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5">
+      <c r="A903" s="6" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B903" s="7" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C903" s="8"/>
+      <c r="D903" s="8"/>
+      <c r="E903" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -24247,16 +24380,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="ac169daa989162207de05ae2f3cbb827">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15797c83b6469b8d9c3bdf2b5b73d1a6" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -24473,14 +24596,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ABE90F5-DD07-4CA3-9245-6FE6F22CEC07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ABE90F5-DD07-4CA3-9245-6FE6F22CEC07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C14C0DB-FD1A-4B7C-830F-CA67B100C48C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6425FA58-684A-413F-B463-32D0C5DAA536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6425FA58-684A-413F-B463-32D0C5DAA536}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C14C0DB-FD1A-4B7C-830F-CA67B100C48C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>